--- a/users.xlsx
+++ b/users.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -424,10 +424,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>7d09bc0e-67bc-4d8c-80c5-bfdfef411f30</v>
+        <v>489abd51-cb6c-4d89-8b6e-5535b8b71bd4</v>
       </c>
       <c r="B2" t="str">
-        <v>Squable Up</v>
+        <v>SquableUp2@</v>
       </c>
       <c r="C2" t="str">
         <v>2025-04-02</v>
@@ -436,15 +436,75 @@
         <v>aaaa@gmail.com</v>
       </c>
       <c r="E2" t="str">
-        <v>Ifthisworld2@</v>
+        <v>SquableUp2@</v>
       </c>
       <c r="F2" t="str">
+        <v>Male</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>48ed5ef8-03b6-491d-b444-67699efac11a</v>
+      </c>
+      <c r="B3" t="str">
+        <v>SquableUp2@</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2025-04-02</v>
+      </c>
+      <c r="D3" t="str">
+        <v>aaaaa@gmail.com</v>
+      </c>
+      <c r="E3" t="str">
+        <v>SquableUp2@</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Male</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>d68a9b16-7b50-4e66-99b0-65610c2327d1</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Divalda</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2025-04-08</v>
+      </c>
+      <c r="D4" t="str">
+        <v>dsadsa@gmail.com</v>
+      </c>
+      <c r="E4" t="str">
+        <v>dsdsadsaA@232@</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Male</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>dd49b1ef-32e7-4494-9f6b-363b07587237</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Luis Viegas</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2004-04-22</v>
+      </c>
+      <c r="D5" t="str">
+        <v>luisviegasr2@gmail.com</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Intermilan2010@</v>
+      </c>
+      <c r="F5" t="str">
         <v>Male</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/users.xlsx
+++ b/users.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -407,104 +407,50 @@
         <v>id</v>
       </c>
       <c r="B1" t="str">
+        <v>pic</v>
+      </c>
+      <c r="C1" t="str">
         <v>userName</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>birthday</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>email</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>password</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>gender</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>489abd51-cb6c-4d89-8b6e-5535b8b71bd4</v>
+        <v>3bd0fc19-e24a-4794-b43b-0f4d3ebe6c5b</v>
       </c>
       <c r="B2" t="str">
-        <v>SquableUp2@</v>
+        <v>profile.jpg</v>
       </c>
       <c r="C2" t="str">
+        <v>Luis Viegas</v>
+      </c>
+      <c r="D2" t="str">
         <v>2025-04-02</v>
       </c>
-      <c r="D2" t="str">
-        <v>aaaa@gmail.com</v>
-      </c>
       <c r="E2" t="str">
-        <v>SquableUp2@</v>
+        <v>luisviegasr2@gmail.com</v>
       </c>
       <c r="F2" t="str">
-        <v>Male</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>48ed5ef8-03b6-491d-b444-67699efac11a</v>
-      </c>
-      <c r="B3" t="str">
-        <v>SquableUp2@</v>
-      </c>
-      <c r="C3" t="str">
-        <v>2025-04-02</v>
-      </c>
-      <c r="D3" t="str">
-        <v>aaaaa@gmail.com</v>
-      </c>
-      <c r="E3" t="str">
-        <v>SquableUp2@</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Male</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>d68a9b16-7b50-4e66-99b0-65610c2327d1</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Divalda</v>
-      </c>
-      <c r="C4" t="str">
-        <v>2025-04-08</v>
-      </c>
-      <c r="D4" t="str">
-        <v>dsadsa@gmail.com</v>
-      </c>
-      <c r="E4" t="str">
-        <v>dsdsadsaA@232@</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Male</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>dd49b1ef-32e7-4494-9f6b-363b07587237</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Luis Viegas</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2004-04-22</v>
-      </c>
-      <c r="D5" t="str">
-        <v>luisviegasr2@gmail.com</v>
-      </c>
-      <c r="E5" t="str">
         <v>Intermilan2010@</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G2" t="str">
         <v>Male</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
   </ignoredErrors>
 </worksheet>
 </file>